--- a/HTMLCompleteDocument.xlsx
+++ b/HTMLCompleteDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">standard for how to specify a document markup language or tag set. </t>
   </si>
@@ -163,6 +163,28 @@
     <t>1.The novalidate attribute is a boolean attribute.
 2.When present, it specifies that the form-data (input) should not be validated when submitted.</t>
   </si>
+  <si>
+    <t>The tabindex attribute specifies the tab order of an element (when the "tab" button is used for navigating).</t>
+  </si>
+  <si>
+    <t>&lt;input name="user" tabindex=1&gt;
+&lt;input name="password" tabindex=2&gt;</t>
+  </si>
+  <si>
+    <t>tabindex</t>
+  </si>
+  <si>
+    <t>&lt;input &gt;</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>size="40"</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="firstname" size="40"&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="70.28515625" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
@@ -651,6 +676,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43739</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -662,6 +693,26 @@
       </c>
       <c r="F4" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43739</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -672,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +779,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
